--- a/02_MasterWifoMannheim/99_Backup/Course109.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course109.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159D6A870718BF9E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B5BED0-7C94-4859-8325-611964739E90}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 635 Social Entrepreneurship: Targeting Social Capital through Ecopreneurship</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This seminar briefly summarizes the evolution of social entrepreneurship as a method of organizing change: the application of entrepreneurial theory to the founding of non-profit and profitable organizations which seek to build `social capital.’ Given political and economic uncertainty and the anticipated exit from nuclear energy sources in an era of scarce resources, the focus will be upon ”ecopreneurship“ and ”frugal innovation.“ create their own sustainable `green designs’ in fields of their choice. Recommended Reading: Arthur Brooks, Social Entrepreneurship: AModern David Bornstein, How to Change the World: Social Entrepreneurs and the Power of New IdeasRobert Isaak, Green Logic: Ecopreneurship, Most of the required reading for the seminar will be available on-line</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>To understand how innovative ideas and practical business models can achieve major social impact, how social entrepreneurs can build sustainable organizations, and why social entrepreneurship has become a contagious global movement.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:“Student information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Seminar 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Oral presentation and one green venture design</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Robert A. Isaak, PhD</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 635 Social Entrepreneurship: Targeting Social Capital through Ecopreneurship</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This seminar briefly summarizes the evolution of social entrepreneurship as a method of organizing change: the application of entrepreneurial theory to the founding of non-profit and profitable organizations which seek to build `social capital.’ Given political and economic uncertainty and the anticipated exit from nuclear energy sources in an era of scarce resources, the focus will be upon ”ecopreneurship“ and ”frugal innovation.“ create their own sustainable `green designs’ in fields of their choice. Recommended Reading: Arthur Brooks, Social Entrepreneurship: AModern David Bornstein, How to Change the World: Social Entrepreneurs and the Power of New IdeasRobert Isaak, Green Logic: Ecopreneurship, Most of the required reading for the seminar will be available on-line</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>To understand how innovative ideas and practical business models can achieve major social impact, how social entrepreneurs can build sustainable organizations, and why social entrepreneurship has become a contagious global movement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:“Student information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Seminar 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oral presentation and one green venture design</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Robert A. Isaak, PhD</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
+        </is>
       </c>
     </row>
   </sheetData>
